--- a/影视工作/南宁项目财务/报表/锦绣南宁贴支出发票.xlsx
+++ b/影视工作/南宁项目财务/报表/锦绣南宁贴支出发票.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="120">
   <si>
     <t>Z01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,10 +529,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>住宿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -554,6 +550,14 @@
   </si>
   <si>
     <t>单组合计2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中住宿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单独住宿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -906,7 +910,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -937,7 +941,7 @@
     <row r="2" spans="1:7">
       <c r="A2">
         <f>SUM(A3:A50)</f>
-        <v>49640</v>
+        <v>49740</v>
       </c>
       <c r="B2">
         <f>SUM(B3:B50)</f>
@@ -998,7 +1002,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>8260</v>
+        <v>8360</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3542,7 +3546,7 @@
       </c>
       <c r="B2">
         <f>住宿!A2</f>
-        <v>49640</v>
+        <v>49740</v>
       </c>
       <c r="C2">
         <f>住宿!B2</f>
@@ -3573,11 +3577,11 @@
       </c>
       <c r="J2">
         <f>SUM(B2:I2)</f>
-        <v>52420</v>
+        <v>52520</v>
       </c>
       <c r="K2">
         <f>J2/J11*100</f>
-        <v>24.117387357262519</v>
+        <v>24.152283365698864</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3621,7 +3625,7 @@
       </c>
       <c r="K3">
         <f>J3/J11*100</f>
-        <v>17.504530406587314</v>
+        <v>17.496480627863718</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3658,7 +3662,7 @@
       </c>
       <c r="K4">
         <f>J4/J11*100</f>
-        <v>20.611578664734086</v>
+        <v>20.602100052995223</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3702,7 +3706,7 @@
       </c>
       <c r="K5">
         <f>J5/J11*100</f>
-        <v>7.5060560314724096</v>
+        <v>7.5026042342098238</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3722,7 +3726,7 @@
       </c>
       <c r="K6">
         <f>J6/J11*100</f>
-        <v>6.7387532092872098</v>
+        <v>6.7356542702726969</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3742,7 +3746,7 @@
       </c>
       <c r="K7">
         <f>J7/J11*100</f>
-        <v>21.673171582742885</v>
+        <v>21.663204778068479</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3786,7 +3790,7 @@
       </c>
       <c r="K8">
         <f>J8/J11*100</f>
-        <v>1.848522747913584</v>
+        <v>1.8476726708912008</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3795,7 +3799,7 @@
       </c>
       <c r="B11">
         <f>SUM(B2:B9)</f>
-        <v>83811.53</v>
+        <v>83911.53</v>
       </c>
       <c r="C11">
         <f t="shared" ref="C11:J11" si="1">SUM(C2:C9)</f>
@@ -3827,7 +3831,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>217353.56</v>
+        <v>217453.56</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3845,8 +3849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3921,7 +3925,7 @@
       </c>
       <c r="B4">
         <f>住宿!A2</f>
-        <v>49640</v>
+        <v>49740</v>
       </c>
       <c r="C4">
         <f>住宿!B2</f>
@@ -3952,11 +3956,11 @@
       </c>
       <c r="J4">
         <f>SUM(B4:I4)</f>
-        <v>52420</v>
+        <v>52520</v>
       </c>
       <c r="K4">
         <f>J4/J12*100</f>
-        <v>24.117387357262519</v>
+        <v>24.152283365698864</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3999,7 +4003,7 @@
       </c>
       <c r="K5">
         <f>J5/J12*100</f>
-        <v>17.504530406587314</v>
+        <v>17.496480627863718</v>
       </c>
       <c r="M5" t="s">
         <v>103</v>
@@ -4049,7 +4053,7 @@
       </c>
       <c r="K6">
         <f>J6/J12*100</f>
-        <v>28.837489480273522</v>
+        <v>28.824228032872856</v>
       </c>
       <c r="M6" t="s">
         <v>104</v>
@@ -4086,7 +4090,7 @@
       </c>
       <c r="K7">
         <f>J7/J12*100</f>
-        <v>7.8674211731337635</v>
+        <v>7.8638031954960859</v>
       </c>
       <c r="P7">
         <v>7771</v>
@@ -4115,7 +4119,7 @@
       </c>
       <c r="K8">
         <f>J8/J12*100</f>
-        <v>21.673171582742885</v>
+        <v>21.663204778068479</v>
       </c>
       <c r="P8">
         <v>9341</v>
@@ -4163,7 +4167,7 @@
       </c>
       <c r="B12">
         <f>SUM(B4:B10)</f>
-        <v>72974.33</v>
+        <v>73074.33</v>
       </c>
       <c r="C12">
         <f t="shared" ref="C12:J12" si="1">SUM(C4:C10)</f>
@@ -4195,14 +4199,14 @@
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>217353.56</v>
+        <v>217453.56</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>110</v>
       </c>
       <c r="N12">
         <f>I12+B12</f>
-        <v>113847.53</v>
+        <v>113947.53</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -4211,31 +4215,31 @@
       </c>
       <c r="C13">
         <f>C12+N12/6</f>
-        <v>37555.126666666663</v>
+        <v>37571.793333333335</v>
       </c>
       <c r="D13">
         <f>D12+N12/6</f>
-        <v>37875.626666666663</v>
+        <v>37892.293333333335</v>
       </c>
       <c r="E13">
         <f>E12+N12/6</f>
-        <v>43130.606666666667</v>
+        <v>43147.273333333331</v>
       </c>
       <c r="F13">
         <f>F12+N12/6</f>
-        <v>36259.726666666669</v>
+        <v>36276.393333333333</v>
       </c>
       <c r="G13">
         <f>G12+N12/6</f>
-        <v>33832.44666666667</v>
+        <v>33849.113333333335</v>
       </c>
       <c r="H13">
         <f>H12+N12/6</f>
-        <v>28700.026666666665</v>
+        <v>28716.693333333336</v>
       </c>
       <c r="J13" s="3">
         <f>SUM(C13:H13)</f>
-        <v>217353.56</v>
+        <v>217453.56</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -4300,10 +4304,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4329,7 +4333,7 @@
         <v>78</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>56</v>
@@ -4371,7 +4375,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3">
         <v>14853</v>
@@ -4401,179 +4405,197 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
+      </c>
+      <c r="E4">
+        <v>276</v>
+      </c>
+      <c r="F4">
+        <v>2504</v>
       </c>
       <c r="I4">
-        <v>52420</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <f>SUM(C4:I4)</f>
-        <v>52420</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I5">
-        <v>17100</v>
+        <v>49740</v>
       </c>
       <c r="J5">
         <f>SUM(C5:I5)</f>
-        <v>17100</v>
-      </c>
-      <c r="M5">
-        <v>3728</v>
-      </c>
-      <c r="N5">
-        <v>14853</v>
-      </c>
-      <c r="P5">
-        <v>52420</v>
+        <v>49740</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I6">
-        <v>47107</v>
+        <v>17100</v>
       </c>
       <c r="J6">
         <f>SUM(C6:I6)</f>
+        <v>17100</v>
+      </c>
+      <c r="M6">
+        <v>3728</v>
+      </c>
+      <c r="N6">
+        <v>14853</v>
+      </c>
+      <c r="P6">
+        <v>52420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7">
         <v>47107</v>
       </c>
-      <c r="M6">
+      <c r="J7">
+        <f>SUM(C7:I7)</f>
+        <v>47107</v>
+      </c>
+      <c r="M7">
         <v>7771</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>11130</v>
       </c>
-      <c r="P6">
+      <c r="P7">
         <v>38047</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="M7">
+    <row r="8" spans="1:16">
+      <c r="M8">
         <v>9341</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>14539</v>
       </c>
-      <c r="P7">
+      <c r="P8">
         <v>62680</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8">
-        <f>SUM(C2:C6)+L13/6</f>
-        <v>40518.833333333328</v>
-      </c>
-      <c r="D8">
-        <f>SUM(D2:D6)+L13/6</f>
-        <v>38338.833333333328</v>
-      </c>
-      <c r="E8">
-        <f>SUM(E2:E6)+L13/6</f>
-        <v>40817.833333333328</v>
-      </c>
-      <c r="F8">
-        <f>SUM(F2:F6)+L13/6</f>
-        <v>34219.833333333328</v>
-      </c>
-      <c r="G8">
-        <f>SUM(G2:G6)+L13/6</f>
-        <v>34295.833333333328</v>
-      </c>
-      <c r="H8">
-        <f>SUM(H2:H6)+L13/6</f>
-        <v>29162.833333333332</v>
-      </c>
-      <c r="J8">
-        <f>SUM(C8:I8)</f>
-        <v>217353.99999999997</v>
-      </c>
-      <c r="L8">
-        <v>52420</v>
-      </c>
-      <c r="M8">
-        <v>8034</v>
-      </c>
-      <c r="N8">
-        <v>6748</v>
-      </c>
-      <c r="P8">
-        <v>17100</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C9">
-        <v>40519</v>
+        <f>SUM(C2:C7)+L14/6</f>
+        <v>40072.166666666672</v>
       </c>
       <c r="D9">
-        <v>38339</v>
+        <f>SUM(D2:D7)+L14/6</f>
+        <v>37892.166666666672</v>
       </c>
       <c r="E9">
-        <v>40818</v>
+        <f>SUM(E2:E7)+L14/6</f>
+        <v>40647.166666666672</v>
       </c>
       <c r="F9">
-        <v>34220</v>
+        <f>SUM(F2:F7)+L14/6</f>
+        <v>36277.166666666672</v>
       </c>
       <c r="G9">
-        <v>34296</v>
+        <f>SUM(G2:G7)+L14/6</f>
+        <v>33849.166666666672</v>
       </c>
       <c r="H9">
-        <v>29162</v>
+        <f>SUM(H2:H7)+L14/6</f>
+        <v>28716.166666666668</v>
       </c>
       <c r="J9">
-        <f>SUM(C9:H9)</f>
-        <v>217354</v>
+        <f>SUM(C9:I9)</f>
+        <v>217454.00000000003</v>
       </c>
       <c r="L9">
+        <v>49740</v>
+      </c>
+      <c r="M9">
+        <v>8034</v>
+      </c>
+      <c r="N9">
+        <v>6748</v>
+      </c>
+      <c r="P9">
         <v>17100</v>
       </c>
-      <c r="M9">
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10">
+        <v>40072</v>
+      </c>
+      <c r="D10">
+        <v>37892</v>
+      </c>
+      <c r="E10">
+        <v>40647</v>
+      </c>
+      <c r="F10">
+        <v>36277</v>
+      </c>
+      <c r="G10">
+        <v>33849</v>
+      </c>
+      <c r="H10">
+        <v>28717</v>
+      </c>
+      <c r="J10">
+        <f>SUM(C10:H10)</f>
+        <v>217454</v>
+      </c>
+      <c r="L10">
+        <v>17100</v>
+      </c>
+      <c r="M10">
         <v>5428</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <v>9430</v>
       </c>
-      <c r="P9">
+      <c r="P10">
         <v>47107</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="L10">
+    <row r="11" spans="1:16">
+      <c r="L11">
         <v>47107</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>3745</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>5980</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="L13">
-        <f>SUM(L8:L10)</f>
-        <v>116627</v>
-      </c>
-      <c r="M13">
-        <f>SUM(M5:M10)</f>
+    <row r="14" spans="1:16">
+      <c r="L14">
+        <f>SUM(L9:L11)</f>
+        <v>113947</v>
+      </c>
+      <c r="M14">
+        <f>SUM(M6:M11)</f>
         <v>38047</v>
       </c>
-      <c r="N13">
-        <f>SUM(N5:N10)</f>
+      <c r="N14">
+        <f>SUM(N6:N11)</f>
         <v>62680</v>
       </c>
-      <c r="P13">
-        <f>SUM(P5:P10)</f>
+      <c r="P14">
+        <f>SUM(P6:P11)</f>
         <v>217354</v>
       </c>
     </row>
